--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28778A19-A481-4972-97CA-4AF42AB2699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fecec953e8d3f6cc/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC1048429118411A5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A275CC-03DB-459B-9729-4537207B3E1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +52,9 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>Admin1</t>
   </si>
 </sst>
 </file>
@@ -123,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,24 +447,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
